--- a/biology/Médecine/1460_en_santé_et_médecine/1460_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1460_en_santé_et_médecine/1460_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1460_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1460_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1460 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1460_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1460_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fondation à Madrid par Pedro Fernández de Lorca, secrétaire des rois de Castille Jean II et Henri IV, de l'hôpital Sainte-Catherine de los Donados (es) d'abord destiné à accueillir d'anciens frères lais du monastère Saint-Jérôme-le-Royal, réservé par la suite aux aveugles, et qui fonctionnera jusqu'à la fin du XIXe siècle[1],[2].
-1460-1461 : fondation à Nantes, par le pape Pie II et par François II, duc de Bretagne, d'une université qui comprend dès l'origine les cinq facultés, dont celle de médecine[3].
-1460-1461 : sous le règne du shogun Ashikaga Yoshimasa, grande famine à Kyoto et dans l'Est du Japon, « la plus terrible du siècle[4] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fondation à Madrid par Pedro Fernández de Lorca, secrétaire des rois de Castille Jean II et Henri IV, de l'hôpital Sainte-Catherine de los Donados (es) d'abord destiné à accueillir d'anciens frères lais du monastère Saint-Jérôme-le-Royal, réservé par la suite aux aveugles, et qui fonctionnera jusqu'à la fin du XIXe siècle,.
+1460-1461 : fondation à Nantes, par le pape Pie II et par François II, duc de Bretagne, d'une université qui comprend dès l'origine les cinq facultés, dont celle de médecine.
+1460-1461 : sous le règne du shogun Ashikaga Yoshimasa, grande famine à Kyoto et dans l'Est du Japon, « la plus terrible du siècle ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1460_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1460_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1446-1460 : fl. Barthélemy Montagnana, professeur de médecine à Padoue[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1446-1460 : fl. Barthélemy Montagnana, professeur de médecine à Padoue.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1460_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1460_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,13 +589,15 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1460 : Marc-Antoine Zimara (mort en 1532), philosophe et médecin italien, professeur à Padoue et à Naples, commentateur d'Aristote et d'Averroès[6].
-Vers 1460 : Guillaume Cop (mort en 1532), humaniste, médecin de Louis XII et Premier médecin de François Ier[7],[8].
-Vers 1460 : Thomas Linacre (mort en 1524), helléniste et médecin anglais, reçu docteur en médecine à Padoue, collaborateur de l'édition princeps du texte grec d'Aristote, professeur à Oxford[9].
-Vers 1460 : Louis Saporta (mort en 1543), médecin du roi de France Charles VIII[10].
-Entre 1437 et 1460 : Jérôme Münzer (mort en 1508), médecin et voyageur allemand[11].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1460 : Marc-Antoine Zimara (mort en 1532), philosophe et médecin italien, professeur à Padoue et à Naples, commentateur d'Aristote et d'Averroès.
+Vers 1460 : Guillaume Cop (mort en 1532), humaniste, médecin de Louis XII et Premier médecin de François Ier,.
+Vers 1460 : Thomas Linacre (mort en 1524), helléniste et médecin anglais, reçu docteur en médecine à Padoue, collaborateur de l'édition princeps du texte grec d'Aristote, professeur à Oxford.
+Vers 1460 : Louis Saporta (mort en 1543), médecin du roi de France Charles VIII.
+Entre 1437 et 1460 : Jérôme Münzer (mort en 1508), médecin et voyageur allemand.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1460_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1460_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>31 mars : Heinrich Laufenberg (de)[12] (né entre 1391 et 1399), auteur en 1429 d'un Régime de santé[13] qui jouira d'une grande popularité jusqu'à la fin du XVIIe siècle[14].
-12 novembre : Pierre Crapillet (né à une date inconnue), directeur de l'hôpital du Saint-Esprit de Dijon, en Bourgogne, familier de Philippe le Bon[15].
-1459 ou 1460 : Jean Lengrenois (né à une date inconnue), professeur de médecine à Paris[16].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>31 mars : Heinrich Laufenberg (de) (né entre 1391 et 1399), auteur en 1429 d'un Régime de santé qui jouira d'une grande popularité jusqu'à la fin du XVIIe siècle.
+12 novembre : Pierre Crapillet (né à une date inconnue), directeur de l'hôpital du Saint-Esprit de Dijon, en Bourgogne, familier de Philippe le Bon.
+1459 ou 1460 : Jean Lengrenois (né à une date inconnue), professeur de médecine à Paris.</t>
         </is>
       </c>
     </row>
